--- a/esquema 2.0/reles_4-12-2016.xlsx
+++ b/esquema 2.0/reles_4-12-2016.xlsx
@@ -92,13 +92,13 @@
     <t>Ermita</t>
   </si>
   <si>
-    <t>Llabi+a</t>
-  </si>
-  <si>
     <t>Castell</t>
   </si>
   <si>
     <t>Masia</t>
+  </si>
+  <si>
+    <t>Llabià</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="C3:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,16 +624,16 @@
         <v>21</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">

--- a/esquema 2.0/reles_4-12-2016.xlsx
+++ b/esquema 2.0/reles_4-12-2016.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="12435" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="12435" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full1" sheetId="1" r:id="rId1"/>
     <sheet name="Full2" sheetId="2" r:id="rId2"/>
     <sheet name="Full3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Full1!$B$1:$U$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Full2!$C$1:$U$26</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>RELÉS</t>
   </si>
@@ -81,10 +85,6 @@
 Bomba </t>
   </si>
   <si>
-    <t>Cova
-Fum</t>
-  </si>
-  <si>
     <t>Fum
 Polsador</t>
   </si>
@@ -99,13 +99,40 @@
   </si>
   <si>
     <t>Llabià</t>
+  </si>
+  <si>
+    <t>Cova</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Tensió</t>
+  </si>
+  <si>
+    <t>BANDERES</t>
+  </si>
+  <si>
+    <t>MUSICA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>Nou panell</t>
+  </si>
+  <si>
+    <t>Antic panell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +148,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,8 +200,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -170,12 +282,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -196,16 +392,109 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="3" builtinId="10"/>
     <cellStyle name="Resultat" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -501,10 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:S7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,27 +804,32 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C1" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -585,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -615,28 +912,28 @@
         <v>4</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="P5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
@@ -689,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
@@ -740,6 +1037,745 @@
       </c>
       <c r="S7" s="6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>220</v>
+      </c>
+      <c r="G9">
+        <v>220</v>
+      </c>
+      <c r="I9">
+        <v>220</v>
+      </c>
+      <c r="J9">
+        <v>220</v>
+      </c>
+      <c r="K9">
+        <v>220</v>
+      </c>
+      <c r="L9">
+        <v>220</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -747,19 +1783,1031 @@
     <mergeCell ref="D3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="D2:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D2" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>4</v>
+      </c>
+      <c r="J5" s="23">
+        <v>5</v>
+      </c>
+      <c r="K5" s="22">
+        <v>6</v>
+      </c>
+      <c r="L5" s="29">
+        <v>7</v>
+      </c>
+      <c r="M5" s="26">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
+      <c r="O5" s="25">
+        <v>10</v>
+      </c>
+      <c r="P5" s="24">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>12</v>
+      </c>
+      <c r="R5" s="23">
+        <v>13</v>
+      </c>
+      <c r="S5" s="22">
+        <v>14</v>
+      </c>
+      <c r="T5" s="39">
+        <v>15</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="4:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="35"/>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="4:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="35"/>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="30">
+        <v>12</v>
+      </c>
+      <c r="G10" s="30">
+        <v>12</v>
+      </c>
+      <c r="H10" s="30">
+        <v>12</v>
+      </c>
+      <c r="I10" s="30">
+        <v>12</v>
+      </c>
+      <c r="J10" s="30">
+        <v>12</v>
+      </c>
+      <c r="K10" s="30">
+        <v>12</v>
+      </c>
+      <c r="L10" s="30">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="31">
+        <v>220</v>
+      </c>
+      <c r="O10" s="31">
+        <v>220</v>
+      </c>
+      <c r="P10" s="31">
+        <v>220</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>220</v>
+      </c>
+      <c r="R10" s="31">
+        <v>220</v>
+      </c>
+      <c r="S10" s="31">
+        <v>220</v>
+      </c>
+      <c r="T10" s="31">
+        <v>220</v>
+      </c>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="35"/>
+    </row>
+    <row r="12" spans="4:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="36"/>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="36"/>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="36"/>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24" s="37">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:T4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
